--- a/.xlsx
+++ b/.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,426 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[D10_C1_B1_06]-M2. Tìm mềnh đề phủ định của mệnh đề chứa biến.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[D10_C1_B4_03]-M2. Tìm giao các khoảng, đoạn</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[D10_C2_B1_04]-M2. Miền nghiệm của ax+by+c&gt;0 (&lt;0) là nữa mặt phẳng chứa điểm nào</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[D10_C4_B1_03]-M2. Cho sin tìm cos</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[D10_C4_B2_01]-M1. Cho a,b, góc C. Tính S.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[D10_C5_B1_04]-M2. Cho trung điểm của đoạn. Tìm khẳng định đúng về hướng, phương, véctơ bằng nhau, độ dài bằng nhau</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[D10_C5_B2_01]-M2. Cho trung điểm của đoạn. Tìm khẳng định tổng hiệu các vectơ.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[D10_C5_B3_04]-M2. Cho hình bình hành. Tìm đẳng thức đúng về vectơ.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[D10_C5_B3_02]-M2. Cho tam giác có trọng tâm. Tìm khẳng định đúng.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[D10_CX_B0_16]-M2. Cho 2 điểm. Tính độ dài vectơ.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[D10_CX_B0_28]-M2. Tìm toạ độ D để ABCD là hình bình hành</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[D10_C5_B4_02]-M2.  Cho hai véctơ có độ dài và tích vô hướng. Tìm góc.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[D10_C4_B2_11]-TF-M2. Cho A,B,a. Xét Đ-S: góc C, cạnh b, cạnh c, diện tích</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Đ-S</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[D10_C5_B2_09]-TF-M3. Cho h.b.h. Xét Đ-S: quy tắc h.b.h, tổng-hiệu vectơ, độ dài.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Đ-S</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VDT</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[D10_CX_B0_40]-TF-M3. Cho 3 điểm. Xét Đ-S: Độ dài, trung điểm, tìm điểm để có h.b.h, tích vô hướng.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Đ-S</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VDT</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[D10_C5_B4_15]-TF-M2. Cho tam giác đều. Xét Đ-S: Góc, tích vô hướng, đẳng thức vectơ, độ dài tổng hiệu.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Đ-S</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[D10_C2_B2_05]-SA-M3. Toán thực tế ứng dụng bpt bậc nhất 2 ẩn.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>VDT</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[D10_C4_B2_38]-SA-M2. Cho AB,BC,AC. Tính đường cao AH (hoặc BH,CH).</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[D10_CX_B0_29]-SA-M2. Tìm m để 3 điểm thẳng hàng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[D10_C5_B4_12]-SA-M3. Cho tam giác có 3 cạnh. Tính vec(AB).vec(AC)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>VDT</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[D10_CX_B0_33]-SA-M3. Tìm M thuộc Ox sao cho MA^2+MB^2 nhỏ nhất.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>VDT</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.xlsx
+++ b/.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,426 +446,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[D10_C1_B1_06]-M2. Tìm mềnh đề phủ định của mệnh đề chứa biến.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[D10_C1_B4_03]-M2. Tìm giao các khoảng, đoạn</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[D10_C2_B1_04]-M2. Miền nghiệm của ax+by+c&gt;0 (&lt;0) là nữa mặt phẳng chứa điểm nào</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[D10_C4_B1_03]-M2. Cho sin tìm cos</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[D10_C4_B2_01]-M1. Cho a,b, góc C. Tính S.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NB</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[D10_C5_B1_04]-M2. Cho trung điểm của đoạn. Tìm khẳng định đúng về hướng, phương, véctơ bằng nhau, độ dài bằng nhau</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[D10_C5_B2_01]-M2. Cho trung điểm của đoạn. Tìm khẳng định tổng hiệu các vectơ.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[D10_C5_B3_04]-M2. Cho hình bình hành. Tìm đẳng thức đúng về vectơ.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[D10_C5_B3_02]-M2. Cho tam giác có trọng tâm. Tìm khẳng định đúng.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[D10_CX_B0_16]-M2. Cho 2 điểm. Tính độ dài vectơ.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[D10_CX_B0_28]-M2. Tìm toạ độ D để ABCD là hình bình hành</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[D10_C5_B4_02]-M2.  Cho hai véctơ có độ dài và tích vô hướng. Tìm góc.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[D10_C4_B2_11]-TF-M2. Cho A,B,a. Xét Đ-S: góc C, cạnh b, cạnh c, diện tích</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Đ-S</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[D10_C5_B2_09]-TF-M3. Cho h.b.h. Xét Đ-S: quy tắc h.b.h, tổng-hiệu vectơ, độ dài.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Đ-S</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>VDT</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[D10_CX_B0_40]-TF-M3. Cho 3 điểm. Xét Đ-S: Độ dài, trung điểm, tìm điểm để có h.b.h, tích vô hướng.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Đ-S</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>VDT</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[D10_C5_B4_15]-TF-M2. Cho tam giác đều. Xét Đ-S: Góc, tích vô hướng, đẳng thức vectơ, độ dài tổng hiệu.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Đ-S</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[D10_C2_B2_05]-SA-M3. Toán thực tế ứng dụng bpt bậc nhất 2 ẩn.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>VDT</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[D10_C4_B2_38]-SA-M2. Cho AB,BC,AC. Tính đường cao AH (hoặc BH,CH).</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[D10_CX_B0_29]-SA-M2. Tìm m để 3 điểm thẳng hàng</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[D10_C5_B4_12]-SA-M3. Cho tam giác có 3 cạnh. Tính vec(AB).vec(AC)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>VDT</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>[D10_CX_B0_33]-SA-M3. Tìm M thuộc Ox sao cho MA^2+MB^2 nhỏ nhất.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>VDT</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.xlsx
+++ b/.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[D10_C1_B1_04]-M2. Tìm mệnh đề đúng (cảm thán, số là số gì, số chia hết cho, nghiệm của phương trình).</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
